--- a/teste.xlsx
+++ b/teste.xlsx
@@ -6048,7 +6048,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>12.2.2</t>
+          <t xml:space="preserve"> 12.2.2 </t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6090,7 +6090,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>12.2.3</t>
+          <t xml:space="preserve"> 12.2.3 </t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>12.2.4</t>
+          <t xml:space="preserve"> 12.2.4 </t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6174,7 +6174,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>12.3</t>
+          <t xml:space="preserve"> 12.3 </t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6198,7 +6198,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>12.3.1</t>
+          <t xml:space="preserve"> 12.3.1 </t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6240,7 +6240,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>12.3.2</t>
+          <t xml:space="preserve"> 12.3.2 </t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -6282,7 +6282,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>12.3.3</t>
+          <t xml:space="preserve"> 12.3.3 </t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>12.3.4</t>
+          <t xml:space="preserve"> 12.3.4 </t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
